--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -873,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
     </row>
